--- a/15 Jul 2021 Udemy Free Courses.xlsx
+++ b/15 Jul 2021 Udemy Free Courses.xlsx
@@ -486,47 +486,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/change-agility-in-the-workplace-become-a-change-agent/</t>
+          <t>https://www.udemy.com/course/django-web-framework-python/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Change Agility in the Workplace: Become a Change Agent</t>
+          <t>Pengenalan Django Web Framework Python untuk Pemula</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Become an agent of change by adopting the agility and resilience skills required in the evolving modern workplace.</t>
+          <t>Membuat website menggunakan Django</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shelley Osborne, Udemy Learning Team</t>
+          <t>Bina Nusantara University, Reinert Yosua Rumagit</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.049</t>
+          <t>194</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>27 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/mental-health-for-coping-with-stress-anxiety-covid-19/</t>
+          <t>https://www.udemy.com/course/change-agility-in-the-workplace-become-a-change-agent/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mental Health for Coping with Stress &amp; Anxiety (Coronavirus)</t>
+          <t>Change Agility in the Workplace: Become a Change Agent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Growth Mindset, Psychology &amp; Mental Health to Find Opportunity in the Crisis &amp; Cope with Fear, Worry, Anxiety &amp; Stress</t>
+          <t>Become an agent of change by adopting the agility and resilience skills required in the evolving modern workplace.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Joeel &amp; Natalie Rivera, Transformation Services</t>
+          <t>Shelley Osborne, Udemy Learning Team</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.123</t>
+          <t>6.049</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24 pelajaran</t>
+          <t>27 pelajaran</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -586,22 +586,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/quick-guide-to-working-remotely-from-vp-of-learning/</t>
+          <t>https://www.udemy.com/course/mental-health-for-coping-with-stress-anxiety-covid-19/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Best Practices for Working Remotely</t>
+          <t>Mental Health for Coping with Stress &amp; Anxiety (Coronavirus)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Join Shelley Osborne, VP of Learning, for her best tips to set yourself up for success when working from home.</t>
+          <t>Growth Mindset, Psychology &amp; Mental Health to Find Opportunity in the Crisis &amp; Cope with Fear, Worry, Anxiety &amp; Stress</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shelley Osborne, Udemy Learning Team</t>
+          <t>Joeel &amp; Natalie Rivera, Transformation Services</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9.827</t>
+          <t>3.123</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3 pelajaran</t>
+          <t>24 pelajaran</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -636,47 +636,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/blender-crash-course/</t>
+          <t>https://www.udemy.com/course/quick-guide-to-working-remotely-from-vp-of-learning/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free Blender Crash Course!</t>
+          <t>Best Practices for Working Remotely</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Start now to create your 3D Scenes!</t>
+          <t>Join Shelley Osborne, VP of Learning, for her best tips to set yourself up for success when working from home.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gustavo Rosa</t>
+          <t>Shelley Osborne, Udemy Learning Team</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.054</t>
+          <t>9.827</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>30 total mnt</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>3 pelajaran</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/morning-meditation/</t>
+          <t>https://www.udemy.com/course/blender-crash-course/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Morning Meditation | Best Guided Meditation Under 10 Minutes</t>
+          <t>Free Blender Crash Course!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Create your PERFECT LIFE with just a 10 minute meditation every morning! Morning Envy is the best meditation!</t>
+          <t>Start now to create your 3D Scenes!</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COURSE ENVY</t>
+          <t>Gustavo Rosa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>2.054</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>44 total mnt</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -736,42 +736,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/high-performance-secrets/</t>
+          <t>https://www.udemy.com/course/morning-meditation/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>High Performance Secrets</t>
+          <t>Morning Meditation | Best Guided Meditation Under 10 Minutes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Get To Your Next Level Of Success and Abundance Faster Using Methods Scientifically Proved to Work</t>
+          <t>Create your PERFECT LIFE with just a 10 minute meditation every morning! Morning Envy is the best meditation!</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mike Pettigrew</t>
+          <t>COURSE ENVY</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>148</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>44 total mnt</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -786,47 +786,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/qtum-introductory-course/</t>
+          <t>https://www.udemy.com/course/high-performance-secrets/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Qtum Introductory Course</t>
+          <t>High Performance Secrets</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>An introduction to the Qtum Blockchain - what it is and what the benefits are</t>
+          <t>Get To Your Next Level Of Success and Abundance Faster Using Methods Scientifically Proved to Work</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nick Hill, Zulekha Cara, Daniel Schwartzkopff, Jonathan Mayer</t>
+          <t>Mike Pettigrew</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.705</t>
+          <t>330</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>29 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -836,47 +836,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/make-wordpress-hosting-easy-with-plesk-on-digitalocean/</t>
+          <t>https://www.udemy.com/course/qtum-introductory-course/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Make WordPress Hosting Easy with Plesk on DigitalOcean</t>
+          <t>Qtum Introductory Course</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Host your WordPress website on DigitalOcean and simplify WordPress WebOps with Plesk hosting platform</t>
+          <t>An introduction to the Qtum Blockchain - what it is and what the benefits are</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Plesk University</t>
+          <t>Nick Hill, Zulekha Cara, Daniel Schwartzkopff, Jonathan Mayer</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1.705</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>29 total mnt</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25 pelajaran</t>
+          <t>10 pelajaran</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -886,42 +886,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/save-time-in-face-animation-with-cartoon-animator-4-pipeline/</t>
+          <t>https://www.udemy.com/course/make-wordpress-hosting-easy-with-plesk-on-digitalocean/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Save Time in Face Animation with Cartoon Animator 4 Pipeline</t>
+          <t>Make WordPress Hosting Easy with Plesk on DigitalOcean</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Learn how to do smooth and organic facial animation that makes your characters look alive (not robotic or fake) in less</t>
+          <t>Host your WordPress website on DigitalOcean and simplify WordPress WebOps with Plesk hosting platform</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2D Animation 101 Courses</t>
+          <t>Plesk University</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>443</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>25 pelajaran</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -986,42 +986,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/bestrongwithresilience/</t>
+          <t>https://www.udemy.com/course/save-time-in-face-animation-with-cartoon-animator-4-pipeline/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>How to be confident with resilient mindset</t>
+          <t>Save Time in Face Animation with Cartoon Animator 4 Pipeline</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Change your life with developing your mindset to positivity</t>
+          <t>Learn how to do smooth and organic facial animation that makes your characters look alive (not robotic or fake) in less</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alex Amey</t>
+          <t>2D Animation 101 Courses</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>384</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-still-the-mind-through-meditation/</t>
+          <t>https://www.udemy.com/course/bestrongwithresilience/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>How To Still The Mind Through Meditation</t>
+          <t>How to be confident with resilient mindset</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A practical way to find inner peace and stability, to face the world.</t>
+          <t>Change your life with developing your mindset to positivity</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jeyaprakash M</t>
+          <t>Alex Amey</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>490</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -1086,37 +1086,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/jupyter-notebook-server-with-aws-ec2-and-aws-vpc/</t>
+          <t>https://www.udemy.com/course/how-to-still-the-mind-through-meditation/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jupyter Notebook Server with AWS EC2 and AWS VPC</t>
+          <t>How To Still The Mind Through Meditation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Build a Cloud Server to run your Jupyter Notebooks</t>
+          <t>A practical way to find inner peace and stability, to face the world.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Justin Mitchel</t>
+          <t>Jeyaprakash M</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>124</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1136,47 +1136,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/aws-vpc-transit-gateway/</t>
+          <t>https://www.udemy.com/course/jupyter-notebook-server-with-aws-ec2-and-aws-vpc/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AWS VPC Transit Gateway  - Hands On Learning!</t>
+          <t>Jupyter Notebook Server with AWS EC2 and AWS VPC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Learn AWS VPC Transit Gateway hands on by implementing 3 practical scenarios</t>
+          <t>Build a Cloud Server to run your Jupyter Notebooks</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kalyan Reddy Daida | DevOps &amp; SRE Architect on AWS, Azure &amp; Google Cloud Platforms</t>
+          <t>Justin Mitchel</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>186</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>27 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -1186,42 +1186,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/canva-free-course/</t>
+          <t>https://www.udemy.com/course/aws-vpc-transit-gateway/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Canva |Top 10 Burning Questions &amp; How To's</t>
+          <t>AWS VPC Transit Gateway  - Hands On Learning!</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Let me answer the Internet's top 10 Canva questions &amp; How to's</t>
+          <t>Learn AWS VPC Transit Gateway hands on by implementing 3 practical scenarios</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ronny Hermosa</t>
+          <t>Kalyan Reddy Daida | DevOps &amp; SRE Architect on AWS, Azure &amp; Google Cloud Platforms</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>368</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>27 pelajaran</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1236,47 +1236,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/build-a-quiz-app-with-html-css-and-javascript/</t>
+          <t>https://www.udemy.com/course/canva-free-course/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Build a Quiz App with HTML, CSS, and JavaScript</t>
+          <t>Canva |Top 10 Burning Questions &amp; How To's</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Improve your core development skills by building a Quiz App with HTML, CSS, and JavaScript</t>
+          <t>Let me answer the Internet's top 10 Canva questions &amp; How to's</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>James Quick</t>
+          <t>Ronny Hermosa</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.035</t>
+          <t>525</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -1286,42 +1286,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/ccna-quiz-questions-exam-prep-pass-ccna-exam/</t>
+          <t>https://www.udemy.com/course/build-a-quiz-app-with-html-css-and-javascript/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CCNA Quiz Questions: Exam prep. Get ready for your exam!</t>
+          <t>Build a Quiz App with HTML, CSS, and JavaScript</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Are you ready for the CCNA exam? You sure? Check your knowledge with our CCNA Exam Quizzes. Make sure you're ready!</t>
+          <t>Improve your core development skills by building a Quiz App with HTML, CSS, and JavaScript</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>David Bombal</t>
+          <t>James Quick</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>3.035</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>105 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1336,42 +1336,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/16mindsetshifts/</t>
+          <t>https://www.udemy.com/course/ccna-quiz-questions-exam-prep-pass-ccna-exam/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15 Mindset Shifts To Attract More Purpose, Play, &amp; Growth</t>
+          <t>CCNA Quiz Questions: Exam prep. Get ready for your exam!</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Appreciate The Beauty Of Your Life Now, Grow Into Your Potential, &amp; Bring Purpose &amp; A Sense Of Play Into Your Work</t>
+          <t>Are you ready for the CCNA exam? You sure? Check your knowledge with our CCNA Exam Quizzes. Make sure you're ready!</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eric John Campbell</t>
+          <t>David Bombal</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>249</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17 pelajaran</t>
+          <t>105 pelajaran</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/another-20-free-life-hacks-to-inspire-you-to-excel-in-business-andlife/</t>
+          <t>https://www.udemy.com/course/16mindsetshifts/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Another" 20 Free Life Hacks to Inspire You to Excel in Life</t>
+          <t>15 Mindset Shifts To Attract More Purpose, Play, &amp; Growth</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Another 20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
+          <t>Appreciate The Beauty Of Your Life Now, Grow Into Your Potential, &amp; Bring Purpose &amp; A Sense Of Play Into Your Work</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chris Haroun</t>
+          <t>Eric John Campbell</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>91</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21 pelajaran</t>
+          <t>17 pelajaran</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -1436,42 +1436,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/time-management-mastery-course-enhanced-productivity/</t>
+          <t>https://www.udemy.com/course/another-20-free-life-hacks-to-inspire-you-to-excel-in-business-andlife/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Time Management Mastery Course - Enhanced Productivity</t>
+          <t>"Another" 20 Free Life Hacks to Inspire You to Excel in Life</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A Scientific Approach Behind Time Management - Time Management Has Never Been Easier - Time Management Mastery Course</t>
+          <t>Another 20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Noah ​Merriby</t>
+          <t>Chris Haroun</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>391</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>29 pelajaran</t>
+          <t>21 pelajaran</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/start-a-business-in-5-days-with-shopify-and-productlistgenie/</t>
+          <t>https://www.udemy.com/course/time-management-mastery-course-enhanced-productivity/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Start a business in 5 days with Shopify and ProductListGenie</t>
+          <t>Time Management Mastery Course - Enhanced Productivity</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Take 'The Challenge' and learn how to start an exciting ecommerce business with Shopify and Product List Genie in 5 days</t>
+          <t>A Scientific Approach Behind Time Management - Time Management Has Never Been Easier - Time Management Mastery Course</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tim Sharp</t>
+          <t>Noah ​Merriby</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>787</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>31 pelajaran</t>
+          <t>29 pelajaran</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -1536,42 +1536,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-start-a-podcast/</t>
+          <t>https://www.udemy.com/course/start-a-business-in-5-days-with-shopify-and-productlistgenie/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>How to Start a Podcast</t>
+          <t>Start a business in 5 days with Shopify and ProductListGenie</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Growing your brand? Want to share your passion with the masses? PODCASTING allows you to do both! Take our FREE course!</t>
+          <t>Take 'The Challenge' and learn how to start an exciting ecommerce business with Shopify and Product List Genie in 5 days</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>COURSE ENVY</t>
+          <t>Tim Sharp</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>448</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>31 pelajaran</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1586,32 +1586,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/changebeliefs/</t>
+          <t>https://www.udemy.com/course/how-to-start-a-podcast/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>How To Change Any Self Limiting Belief In 30 Minutes</t>
+          <t>How to Start a Podcast</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Watch Eric Remove One of His Limiting Beliefs Live! "I must work hard to survive"</t>
+          <t>Growing your brand? Want to share your passion with the masses? PODCASTING allows you to do both! Take our FREE course!</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eric John Campbell, David Papa</t>
+          <t>COURSE ENVY</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>434</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1636,47 +1636,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/20-life-hacks-to-inspire-you-to-excel-in-business-life/</t>
+          <t>https://www.udemy.com/course/changebeliefs/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20 Free Life Hacks to Inspire You to Excel in Business &amp;Life</t>
+          <t>How To Change Any Self Limiting Belief In 30 Minutes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
+          <t>Watch Eric Remove One of His Limiting Beliefs Live! "I must work hard to survive"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Chris Haroun</t>
+          <t>Eric John Campbell, David Papa</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.486</t>
+          <t>685</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>18 pelajaran</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -1686,32 +1686,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/foundation-skills-for-meditation/</t>
+          <t>https://www.udemy.com/course/20-life-hacks-to-inspire-you-to-excel-in-business-life/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Foundation Skills for a Successful Meditation Practice</t>
+          <t>20 Free Life Hacks to Inspire You to Excel in Business &amp;Life</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Learn how to find comfort in stillness, handle distraction and keep the mind focused to reap the benefits of meditation</t>
+          <t>20 Free Videos to Inspire You to Live Your Life on Your Terms</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Laura Goellner</t>
+          <t>Chris Haroun</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>1.486</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/powerpoint-for-beginners-free/</t>
+          <t>https://www.udemy.com/course/foundation-skills-for-meditation/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PowerPoint for Beginners - Program &amp; Animation Basics FREE</t>
+          <t>Foundation Skills for a Successful Meditation Practice</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PowerPoint basics is a free course where you learn basics about the software and its animation features. Enjoy!</t>
+          <t>Learn how to find comfort in stillness, handle distraction and keep the mind focused to reap the benefits of meditation</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Andrew Pach</t>
+          <t>Laura Goellner</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.114</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>27 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1836,42 +1836,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/wordpress-hosting-with-plesk-on-lightsail/</t>
+          <t>https://www.udemy.com/course/powerpoint-for-beginners-free/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Make WordPress Hosting Easy with Plesk on Amazon Lightsail</t>
+          <t>PowerPoint for Beginners - Program &amp; Animation Basics FREE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Host your WordPress website on Amazon Lightsail and simplify WordPress WebOps with Plesk hosting platform</t>
+          <t>PowerPoint basics is a free course where you learn basics about the software and its animation features. Enjoy!</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Plesk University</t>
+          <t>Andrew Pach</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>4.114</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>28 pelajaran</t>
+          <t>27 pelajaran</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1886,47 +1886,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/productivity-time-management-focus-and-success/</t>
+          <t>https://www.udemy.com/course/wordpress-hosting-with-plesk-on-lightsail/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Productivity: Time Management, Focus and Success</t>
+          <t>Make WordPress Hosting Easy with Plesk on Amazon Lightsail</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>How To Become More Productive And Manage Your Time Properly</t>
+          <t>Host your WordPress website on Amazon Lightsail and simplify WordPress WebOps with Plesk hosting platform</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Noah ​Merriby, Mayez El Merhbi</t>
+          <t>Plesk University</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.692</t>
+          <t>280</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>33 pelajaran</t>
+          <t>28 pelajaran</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -1936,47 +1936,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/jsp-servlet-free/</t>
+          <t>https://www.udemy.com/course/productivity-time-management-focus-and-success/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JSP (Java server pages) and servlet basics</t>
+          <t>Productivity: Time Management, Focus and Success</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A JSP (Java server pages) and servlet basics course for beginners</t>
+          <t>How To Become More Productive And Manage Your Time Properly</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>StudyEasy Organisation, Chaand Sheikh</t>
+          <t>Noah ​Merriby, Mayez El Merhbi</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1.692</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>28 pelajaran</t>
+          <t>33 pelajaran</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/goal-setting-mastery-set-goals-and-crush-them/</t>
+          <t>https://www.udemy.com/course/jsp-servlet-free/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Goal Setting Mastery - Set Goals and Crush Them</t>
+          <t>JSP (Java server pages) and servlet basics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Set Goals - Plan Properly - Execute - Be Consistent - Manage Your Time - Manage Your Mind - Achieve Your Goals</t>
+          <t>A JSP (Java server pages) and servlet basics course for beginners</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Noah ​Merriby</t>
+          <t>StudyEasy Organisation, Chaand Sheikh</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>575</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19 pelajaran</t>
+          <t>28 pelajaran</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -2036,42 +2036,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/personal-productivity-time-management-and-personal-success/</t>
+          <t>https://www.udemy.com/course/goal-setting-mastery-set-goals-and-crush-them/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The Complete Modern Success Productivity Formula 2.0 ®</t>
+          <t>Goal Setting Mastery - Set Goals and Crush Them</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Learn The Scientific Basis Of Time Management And Personal Productivity And Learn How To Use It To Your Advantage</t>
+          <t>Set Goals - Plan Properly - Execute - Be Consistent - Manage Your Time - Manage Your Mind - Achieve Your Goals</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Noah ​Merriby, Mayez El Merhbi</t>
+          <t>Noah ​Merriby</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.320</t>
+          <t>333</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>44 pelajaran</t>
+          <t>19 pelajaran</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2086,47 +2086,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/digital-painting-series-ep0-dragon-bust/</t>
+          <t>https://www.udemy.com/course/personal-productivity-time-management-and-personal-success/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Digital Painting Series Ep0. Dragon Bust</t>
+          <t>The Complete Modern Success Productivity Formula 2.0 ®</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Learn to paint step by step. From amateur to master.</t>
+          <t>Learn The Scientific Basis Of Time Management And Personal Productivity And Learn How To Use It To Your Advantage</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Austin Batchelor</t>
+          <t>Noah ​Merriby, Mayez El Merhbi</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1.320</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>5 total jam</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>18 pelajaran</t>
+          <t>44 pelajaran</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/katiebmeditation/</t>
+          <t>https://www.udemy.com/course/digital-painting-series-ep0-dragon-bust/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5 Min Meditation Techniques to Create Balance</t>
+          <t>Digital Painting Series Ep0. Dragon Bust</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>From a beginner to someone who just wants to get back in the habit, here's my best tips and tricks to find balance.</t>
+          <t>Learn to paint step by step. From amateur to master.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Katie B Happyy</t>
+          <t>Austin Batchelor</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>567</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>44 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10 pelajaran</t>
+          <t>18 pelajaran</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2186,47 +2186,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/working-remotely-efficiently-and-effectively/</t>
+          <t>https://www.udemy.com/course/katiebmeditation/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Working Remotely: Efficiently and Effectively</t>
+          <t>5 Min Meditation Techniques to Create Balance</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Survive and thrive working outside of the office</t>
+          <t>From a beginner to someone who just wants to get back in the habit, here's my best tips and tricks to find balance.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Michael Taylor</t>
+          <t>Katie B Happyy</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>218</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>40 total mnt</t>
+          <t>44 total mnt</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>10 pelajaran</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -2236,42 +2236,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/productivity-for-creative-people-master-your-day/</t>
+          <t>https://www.udemy.com/course/working-remotely-efficiently-and-effectively/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Productivity for Artists</t>
+          <t>Working Remotely: Efficiently and Effectively</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Get More Done every Day. Optimize your Focus, Motivation &amp; Energy.</t>
+          <t>Survive and thrive working outside of the office</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mikael Baggström</t>
+          <t>Michael Taylor</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>662</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>40 total mnt</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>28 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/git-and-github-crash-course-creating-a-repository-from-scratch/</t>
+          <t>https://www.udemy.com/course/productivity-for-creative-people-master-your-day/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Git &amp; GitHub Crash Course: Create a Repository From Scratch!</t>
+          <t>Productivity for Artists</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Learn how to create a Git repository, clone it, make changes, and submit changes to GitHub in less than 30 minutes.</t>
+          <t>Get More Done every Day. Optimize your Focus, Motivation &amp; Energy.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kalob Taulien</t>
+          <t>Mikael Baggström</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2311,22 +2311,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>7.023</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>37 total mnt</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12 pelajaran</t>
+          <t>28 pelajaran</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -2336,42 +2336,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/css-flexbox-mastering-the-basics/</t>
+          <t>https://www.udemy.com/course/git-and-github-crash-course-creating-a-repository-from-scratch/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CSS Flexbox - Mastering the Basics</t>
+          <t>Git &amp; GitHub Crash Course: Create a Repository From Scratch!</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>For Beginners</t>
+          <t>Learn how to create a Git repository, clone it, make changes, and submit changes to GitHub in less than 30 minutes.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Vishwas Gopinath</t>
+          <t>Kalob Taulien</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.101</t>
+          <t>7.023</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>37 total mnt</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>22 pelajaran</t>
+          <t>12 pelajaran</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-set-goals-and-become-incredible/</t>
+          <t>https://www.udemy.com/course/css-flexbox-mastering-the-basics/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>How to Set Goals and Become Incredible</t>
+          <t>CSS Flexbox - Mastering the Basics</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A Beginners Guide to Excelling in Your Career</t>
+          <t>For Beginners</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jerry Acuff</t>
+          <t>Vishwas Gopinath</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.242</t>
+          <t>2.101</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>32 total mnt</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>22 pelajaran</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2436,42 +2436,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/app-center/</t>
+          <t>https://www.udemy.com/course/how-to-set-goals-and-become-incredible/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>App Center: Continuous Integration and Delivery for iOS</t>
+          <t>How to Set Goals and Become Incredible</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Automate your iOS development process</t>
+          <t>A Beginners Guide to Excelling in Your Career</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Xamarin University</t>
+          <t>Jerry Acuff</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1.242</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>32 total mnt</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>30 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2486,47 +2486,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/15-essential-blues-guitar-licks/</t>
+          <t>https://www.udemy.com/course/app-center/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15 Essential Blues Guitar Licks</t>
+          <t>App Center: Continuous Integration and Delivery for iOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Learn to play classic blues</t>
+          <t>Automate your iOS development process</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Absolute Blues Guitar Guitar Lessons</t>
+          <t>Xamarin University</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>158</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>43 total mnt</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6 pelajaran</t>
+          <t>30 pelajaran</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -2536,42 +2536,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/paint-and-roto-for-feature-film-vfx/</t>
+          <t>https://www.udemy.com/course/15-essential-blues-guitar-licks/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Paint and Roto for Feature Film VFX 01</t>
+          <t>15 Essential Blues Guitar Licks</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Marker Removal in Nuke</t>
+          <t>Learn to play classic blues</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Michael North</t>
+          <t>Absolute Blues Guitar Guitar Lessons</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>322</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>43 total mnt</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>6 pelajaran</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2586,47 +2586,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-dj-with-the-pioneer-ddj-sb2/</t>
+          <t>https://www.udemy.com/course/paint-and-roto-for-feature-film-vfx/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>How to DJ with the Pioneer DDJ-SB2</t>
+          <t>Paint and Roto for Feature Film VFX 01</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>From complete beginner to playing awesome DJ sets on the Pioneer DDJ-SB2 using beatmixing, cues, loops, samples &amp; more</t>
+          <t>Marker Removal in Nuke</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Joey Santos</t>
+          <t>Michael North</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>193</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>24 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -2636,42 +2636,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/starting-to-write/</t>
+          <t>https://www.udemy.com/course/how-to-dj-with-the-pioneer-ddj-sb2/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Starting to write</t>
+          <t>How to DJ with the Pioneer DDJ-SB2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Be a more creative you. Take small steps and start writing today.</t>
+          <t>From complete beginner to playing awesome DJ sets on the Pioneer DDJ-SB2 using beatmixing, cues, loops, samples &amp; more</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Louise Tondeur</t>
+          <t>Joey Santos</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>516</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>43 pelajaran</t>
+          <t>24 pelajaran</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2686,42 +2686,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/unity-2017-create-a-top-down-camera-with-editor-tools/</t>
+          <t>https://www.udemy.com/course/starting-to-write/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Unity 3D - Create a Top Down Camera with Editor Tools</t>
+          <t>Starting to write</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Learn to create a Camera for your Top Down Games</t>
+          <t>Be a more creative you. Take small steps and start writing today.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Indie - Pixel</t>
+          <t>Louise Tondeur</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>939</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6 pelajaran</t>
+          <t>43 pelajaran</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2736,42 +2736,42 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/learn-how-to-make-a-wordpress-website-professional/</t>
+          <t>https://www.udemy.com/course/unity-2017-create-a-top-down-camera-with-editor-tools/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Learn How to MAKE a WordPress Website - PROFESSIONAL</t>
+          <t>Unity 3D - Create a Top Down Camera with Editor Tools</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Create a WordPress Website Step by Step - DRAG AND DROP</t>
+          <t>Learn to create a Camera for your Top Down Games</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Wordpress Guru</t>
+          <t>Indie - Pixel</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12 pelajaran</t>
+          <t>6 pelajaran</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2786,42 +2786,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/breath-secrets-7-day-challenge/</t>
+          <t>https://www.udemy.com/course/learn-how-to-make-a-wordpress-website-professional/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Breath Secrets : 7 Day Challenge</t>
+          <t>Learn How to MAKE a WordPress Website - PROFESSIONAL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Join David and Harness the Power of the Breath to Clear Mental Fog, Overcome Depression, and Access Inspiration</t>
+          <t>Create a WordPress Website Step by Step - DRAG AND DROP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>David Beaudry</t>
+          <t>Wordpress Guru</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>17 pelajaran</t>
+          <t>12 pelajaran</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2836,47 +2836,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/isha-kriya-a-powerful-meditation/</t>
+          <t>https://www.udemy.com/course/breath-secrets-7-day-challenge/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Isha Kriya: A Powerful Meditation for Self Transformation</t>
+          <t>Breath Secrets : 7 Day Challenge</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12-min Powerful Meditation Guided by a Mystic|Meditation for Wellbeing, Peace, Prosperity, Health &amp; Stress Management</t>
+          <t>Join David and Harness the Power of the Breath to Clear Mental Fog, Overcome Depression, and Access Inspiration</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sadhguru : Insights and Wisdom</t>
+          <t>David Beaudry</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.411</t>
+          <t>382</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10 pelajaran</t>
+          <t>17 pelajaran</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -2886,47 +2886,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/gimp-crash-course/</t>
+          <t>https://www.udemy.com/course/isha-kriya-a-powerful-meditation/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GIMP Crash Course for Beginners!</t>
+          <t>Isha Kriya: A Powerful Meditation for Self Transformation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Learn the basics of GIMP.  Setup to look like Photoshop. Learn how to use files and layers.</t>
+          <t>12-min Powerful Meditation Guided by a Mystic|Meditation for Wellbeing, Peace, Prosperity, Health &amp; Stress Management</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Chris Parker</t>
+          <t>Sadhguru : Insights and Wisdom</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.040</t>
+          <t>2.411</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>10 pelajaran</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/mindfulness-and-neuroplasticity/</t>
+          <t>https://www.udemy.com/course/gimp-crash-course/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mindfulness and Neuroplasticity</t>
+          <t>GIMP Crash Course for Beginners!</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Learn what neuroplasticity is and how mindfulness techniques may be used to improve your life.</t>
+          <t>Learn the basics of GIMP.  Setup to look like Photoshop. Learn how to use files and layers.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salvador Choussy</t>
+          <t>Chris Parker</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2961,22 +2961,22 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1.040</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>7 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -2986,32 +2986,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/reframing-your-life/</t>
+          <t>https://www.udemy.com/course/mindfulness-and-neuroplasticity/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Reframing your life</t>
+          <t>Mindfulness and Neuroplasticity</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>How to think differently and act differently</t>
+          <t>Learn what neuroplasticity is and how mindfulness techniques may be used to improve your life.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Karim Benammar, Ph.D.</t>
+          <t>Salvador Choussy</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>560</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>7 pelajaran</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3036,42 +3036,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/deskyoga/</t>
+          <t>https://www.udemy.com/course/reframing-your-life/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yoga for Desk Workers &amp; Students - SarahBethYoga</t>
+          <t>Reframing your life</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Short (all levels) yoga routines that will stretch you out and reduce tension in ~5 minutes each</t>
+          <t>How to think differently and act differently</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sarah Beth Yoga</t>
+          <t>Karim Benammar, Ph.D.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>376</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>44 total mnt</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/2018-goals-plans-time/</t>
+          <t>https://www.udemy.com/course/deskyoga/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2020: How To Get Crystal Crystal Clear on Your Goals &amp; Plans</t>
+          <t>Yoga for Desk Workers &amp; Students - SarahBethYoga</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3 Counter-Intuitive Strategies You Can Use TODAY To SKYROCKET Your Chances of Success This Year!</t>
+          <t>Short (all levels) yoga routines that will stretch you out and reduce tension in ~5 minutes each</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Brandon Hakim, Insider School</t>
+          <t>Sarah Beth Yoga</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>541</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>44 total mnt</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/5-coordinate-implementation-of-emergency-preparedness/</t>
+          <t>https://www.udemy.com/course/2018-goals-plans-time/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coordination and Implementation of Emergency Preparedness</t>
+          <t>2020: How To Get Crystal Crystal Clear on Your Goals &amp; Plans</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Part of WSQ - Advanced certificate in Workplace Safety in Health</t>
+          <t>3 Counter-Intuitive Strategies You Can Use TODAY To SKYROCKET Your Chances of Success This Year!</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GREENSAFE INTERNATIONAL, Dioworks Group</t>
+          <t>Brandon Hakim, Insider School</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>560</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>6 pelajaran</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Ahli</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -3186,32 +3186,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-prevent-identity-theft-online-with-strong-passwords/</t>
+          <t>https://www.udemy.com/course/5-coordinate-implementation-of-emergency-preparedness/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Protect Your Online Identity with Great Passwords</t>
+          <t>Coordination and Implementation of Emergency Preparedness</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Learn how hackers steal your passwords and how to protect yourself from identity theft</t>
+          <t>Part of WSQ - Advanced certificate in Workplace Safety in Health</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ryan Foster</t>
+          <t>GREENSAFE INTERNATIONAL, Dioworks Group</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>368</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>21 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Ahli</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/beginners-guide-to-meditation/</t>
+          <t>https://www.udemy.com/course/how-to-prevent-identity-theft-online-with-strong-passwords/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Beginners Guide to Meditation</t>
+          <t>Protect Your Online Identity with Great Passwords</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Meditation a tool for transformation</t>
+          <t>Learn how hackers steal your passwords and how to protect yourself from identity theft</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Christina Abad</t>
+          <t>Ryan Foster</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3261,22 +3261,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>653</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>41 total mnt</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>9 pelajaran</t>
+          <t>21 pelajaran</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -3286,37 +3286,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/hdr-lighting-in-blender/</t>
+          <t>https://www.udemy.com/course/beginners-guide-to-meditation/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HDR Image-Based Lighting in Blender</t>
+          <t>Beginners Guide to Meditation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Watch this crash course and master the complete HDR image-based lighting workflow, 100% Blender</t>
+          <t>Meditation a tool for transformation</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Aidy Burrows, Gleb Alexandrov</t>
+          <t>Christina Abad</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>195</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>41 total mnt</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -3336,47 +3336,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/arbasketball/</t>
+          <t>https://www.udemy.com/course/hdr-lighting-in-blender/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ARKit BasketBall: Create Your First AR App Using ARKit</t>
+          <t>HDR Image-Based Lighting in Blender</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Learn To Create Your First App Using ARKit</t>
+          <t>Watch this crash course and master the complete HDR image-based lighting workflow, 100% Blender</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gabriel Abraham</t>
+          <t>Aidy Burrows, Gleb Alexandrov</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>544</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>19 pelajaran</t>
+          <t>9 pelajaran</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -3386,32 +3386,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/your-first-decentralized-app/</t>
+          <t>https://www.udemy.com/course/arbasketball/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Build and Deploy Your First Decentralized App with Etherem</t>
+          <t>ARKit BasketBall: Create Your First AR App Using ARKit</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Learn how to create Smart Contracts and Interact with them through a Web3 User Interface!</t>
+          <t>Learn To Create Your First App Using ARKit</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gary Simon</t>
+          <t>Gabriel Abraham</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.130</t>
+          <t>164</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>8 pelajaran</t>
+          <t>19 pelajaran</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3436,32 +3436,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/mindset-makeover-training/</t>
+          <t>https://www.udemy.com/course/your-first-decentralized-app/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mindset Makeover Training (Powerful Techniques &amp; Meditation)</t>
+          <t>Build and Deploy Your First Decentralized App with Etherem</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Discover &amp; Destroy Blocks to Success &amp; Happiness with Subconscious Reprogramming Techniques That Work!</t>
+          <t>Learn how to create Smart Contracts and Interact with them through a Web3 User Interface!</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rachael L. Thompson</t>
+          <t>Gary Simon</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1.130</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>17 pelajaran</t>
+          <t>8 pelajaran</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -3486,47 +3486,47 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/funmastermike-teaches-all-chesskids/</t>
+          <t>https://www.udemy.com/course/mindset-makeover-training/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kids Learn Chess the Fun &amp; Easy Way!</t>
+          <t>Mindset Makeover Training (Powerful Techniques &amp; Meditation)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Become a chess player and better thinker through a series of fun animated chess lessons.</t>
+          <t>Discover &amp; Destroy Blocks to Success &amp; Happiness with Subconscious Reprogramming Techniques That Work!</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Mike Klein</t>
+          <t>Rachael L. Thompson</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.777</t>
+          <t>340</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>27 pelajaran</t>
+          <t>17 pelajaran</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -3536,47 +3536,47 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/linux-tutorials/</t>
+          <t>https://www.udemy.com/course/funmastermike-teaches-all-chesskids/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Linux Tutorials and Projects (Free)</t>
+          <t>Kids Learn Chess the Fun &amp; Easy Way!</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Free Tutorials Including Load Balancing, MySQL Replication, SSL Certificate Management and More.</t>
+          <t>Become a chess player and better thinker through a series of fun animated chess lessons.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jason Cannon</t>
+          <t>Mike Klein</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.438</t>
+          <t>1.777</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>43 total mnt</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6 pelajaran</t>
+          <t>27 pelajaran</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -3586,42 +3586,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/yoursuccess/</t>
+          <t>https://www.udemy.com/course/linux-tutorials/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Success: How To Set HIGH Goals &amp; Actually Achieve Them!</t>
+          <t>Linux Tutorials and Projects (Free)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Master The Traits You Need To Get Rich and Wealthy In Business and In Life</t>
+          <t>Free Tutorials Including Load Balancing, MySQL Replication, SSL Certificate Management and More.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Heather K. Woodward</t>
+          <t>Jason Cannon</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>2.438</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>43 total mnt</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>6 pelajaran</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3636,32 +3636,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/yogaforbeginners/</t>
+          <t>https://www.udemy.com/course/yoursuccess/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Yoga for Beginners - SarahBethYoga</t>
+          <t>Success: How To Set HIGH Goals &amp; Actually Achieve Them!</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Stretch, strengthen, tone &amp; relax with quick beginner yoga routines</t>
+          <t>Master The Traits You Need To Get Rich and Wealthy In Business and In Life</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sarah Beth Yoga</t>
+          <t>Heather K. Woodward</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>108</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -3686,47 +3686,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/selftransformation/</t>
+          <t>https://www.udemy.com/course/yogaforbeginners/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Transform Your Mind  - Transform Your Life</t>
+          <t>Yoga for Beginners - SarahBethYoga</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>The Journey Of Self-Transformation Overview - The Journey Of Transforming Suffering States Of Mind into Happiness</t>
+          <t>Stretch, strengthen, tone &amp; relax with quick beginner yoga routines</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jonny John Liu</t>
+          <t>Sarah Beth Yoga</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>613</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>26 pelajaran</t>
+          <t>6 pelajaran</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -3736,47 +3736,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/beat-anxiety-forever/</t>
+          <t>https://www.udemy.com/course/selftransformation/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Beat Anxiety Forever With The "R.A.I.N. Switch Technique"</t>
+          <t>Transform Your Mind  - Transform Your Life</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Learn How To Find The "Off-Switch" For Your Racing Thoughts And Feel Back In Control Within 14 Seconds</t>
+          <t>The Journey Of Self-Transformation Overview - The Journey Of Transforming Suffering States Of Mind into Happiness</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Steve Pavilanis</t>
+          <t>Jonny John Liu</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>206</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>34 pelajaran</t>
+          <t>26 pelajaran</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -3786,32 +3786,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/amazon-web-services-aws-v/</t>
+          <t>https://www.udemy.com/course/beat-anxiety-forever/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Amazon Web Services (AWS) - Zero to Hero</t>
+          <t>Beat Anxiety Forever With The "R.A.I.N. Switch Technique"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Beginners, Zero to Hero. AWS EC2 web server, NodeJS Server, AWS RDS database server, S3, SES &amp; CloudWatch. FREE</t>
+          <t>Learn How To Find The "Off-Switch" For Your Racing Thoughts And Feel Back In Control Within 14 Seconds</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BackSpace Academy</t>
+          <t>Steve Pavilanis</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3.813</t>
+          <t>421</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>34 pelajaran</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-create-a-listing-or-directory-website-with-wordpress/</t>
+          <t>https://www.udemy.com/course/amazon-web-services-aws-v/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>How to Create a Listing or Directory Website with WordPress</t>
+          <t>Amazon Web Services (AWS) - Zero to Hero</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Create a Professional Listing, Directory or Real Estate website With WordPress, Step by Step</t>
+          <t>Beginners, Zero to Hero. AWS EC2 web server, NodeJS Server, AWS RDS database server, S3, SES &amp; CloudWatch. FREE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nayyar Shaikh</t>
+          <t>BackSpace Academy</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3861,17 +3861,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>3.813</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>3 total jam</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3886,32 +3886,32 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/beginner-strumming-secrets-15-video-digital-course/</t>
+          <t>https://www.udemy.com/course/how-to-create-a-listing-or-directory-website-with-wordpress/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Beginner Strumming 15-Video Digital Course</t>
+          <t>How to Create a Listing or Directory Website with WordPress</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Acoustic or Electric</t>
+          <t>Create a Professional Listing, Directory or Real Estate website With WordPress, Step by Step</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Guitar Jamz Guitar Lessons</t>
+          <t>Nayyar Shaikh</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>225</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/art-fundamentals-in-one-hour/</t>
+          <t>https://www.udemy.com/course/beginner-strumming-secrets-15-video-digital-course/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Art Fundamentals - Building Blocks of Digital Painting</t>
+          <t>Beginner Strumming 15-Video Digital Course</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A beginner's guide to the building blocks of digital art</t>
+          <t>Acoustic or Electric</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hardy Fowler</t>
+          <t>Guitar Jamz Guitar Lessons</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3961,17 +3961,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.226</t>
+          <t>393</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>8 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3986,42 +3986,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/ajax-project/</t>
+          <t>https://www.udemy.com/course/art-fundamentals-in-one-hour/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Infinite Scroll Project AJAX MySQL API PHP jQuery</t>
+          <t>Art Fundamentals - Building Blocks of Digital Painting</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Explore how to create a web application that sends requests to the server for additional data as users scroll the page</t>
+          <t>A beginner's guide to the building blocks of digital art</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Laurence Svekis</t>
+          <t>Hardy Fowler</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>5.226</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>8 pelajaran</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4036,47 +4036,47 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/minimalism-simplicity-freedom/</t>
+          <t>https://www.udemy.com/course/ajax-project/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Minimalism: Simplify Your Life</t>
+          <t>Infinite Scroll Project AJAX MySQL API PHP jQuery</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Become a Minimalist, Surround Yourself by What You Love &amp; Apply the Best Methods, Principles, Techniques in Your Life.</t>
+          <t>Explore how to create a web application that sends requests to the server for additional data as users scroll the page</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Revshan Abdurakhmanov</t>
+          <t>Laurence Svekis</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>25 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -4086,47 +4086,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-play-piano-course/</t>
+          <t>https://www.udemy.com/course/minimalism-simplicity-freedom/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>How to Play Piano - Your First Lesson!</t>
+          <t>Minimalism: Simplify Your Life</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Learn the black and white notes, understand keyboard &amp; piano types, and gain a big picture understanding of music</t>
+          <t>Become a Minimalist, Surround Yourself by What You Love &amp; Apply the Best Methods, Principles, Techniques in Your Life.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Musicians Inspired</t>
+          <t>Revshan Abdurakhmanov</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>31 total mnt</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>25 pelajaran</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -4136,47 +4136,47 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/free-aromatherapy-using-essential-oils-in-your-daily-life/</t>
+          <t>https://www.udemy.com/course/how-to-play-piano-course/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Introductory Aromatherapy Course For Natural Living</t>
+          <t>How to Play Piano - Your First Lesson!</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Aromatherapy-Learn how to use essential oils in your everyday life safely and effectively to make your own products</t>
+          <t>Learn the black and white notes, understand keyboard &amp; piano types, and gain a big picture understanding of music</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mark Perren-Jones</t>
+          <t>Musicians Inspired</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3.897</t>
+          <t>518</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>31 total mnt</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>26 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -4186,32 +4186,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/ue4movabecamerasystem/</t>
+          <t>https://www.udemy.com/course/free-aromatherapy-using-essential-oils-in-your-daily-life/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>UE4 Movable Camera System</t>
+          <t>Introductory Aromatherapy Course For Natural Living</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Learning how to visual code in Unreal Engine 4 by making a Movable Camera System.</t>
+          <t>Aromatherapy-Learn how to use essential oils in your everyday life safely and effectively to make your own products</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Weston Huett</t>
+          <t>Mark Perren-Jones</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>3.897</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>26 pelajaran</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4236,42 +4236,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/5-present-breaths/</t>
+          <t>https://www.udemy.com/course/ue4movabecamerasystem/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Meditation For The Present Moment - 5 Present Breaths</t>
+          <t>UE4 Movable Camera System</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Powerful Meditation for Inner Stability and Peace - Developing Insight 20min a day - Anapana Vipassana</t>
+          <t>Learning how to visual code in Unreal Engine 4 by making a Movable Camera System.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jonny John Liu</t>
+          <t>Weston Huett</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>168</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>7 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/sparkstarterkit/</t>
+          <t>https://www.udemy.com/course/5-present-breaths/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Spark Starter Kit</t>
+          <t>Meditation For The Present Moment - 5 Present Breaths</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NOT another "What is Spark?" course ! Explore Spark in depth and get a strong foundation in Spark.</t>
+          <t>Powerful Meditation for Inner Stability and Peace - Developing Insight 20min a day - Anapana Vipassana</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hadoop In Real World</t>
+          <t>Jonny John Liu</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4311,22 +4311,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.694</t>
+          <t>172</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>17 pelajaran</t>
+          <t>7 pelajaran</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -4336,47 +4336,47 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/gzip-esp8266-webserver-using-arduino-ide/</t>
+          <t>https://www.udemy.com/course/sparkstarterkit/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ESP8266 IoT Web server Optimization Using Arduino IDE</t>
+          <t>Spark Starter Kit</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Learn to use GZIP compression and improve ESP8266 IoT web server performance.</t>
+          <t>NOT another "What is Spark?" course ! Explore Spark in depth and get a strong foundation in Spark.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Farrukh Hussain</t>
+          <t>Hadoop In Real World</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>3.694</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>3,5 total jam</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>21 pelajaran</t>
+          <t>17 pelajaran</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/photography-for-beginners/</t>
+          <t>https://www.udemy.com/course/gzip-esp8266-webserver-using-arduino-ide/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Photography Fundamentals for Beginners</t>
+          <t>ESP8266 IoT Web server Optimization Using Arduino IDE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Learn the exposure triangle (aperture, shutter speed, ISO) and basic composition rules in this easy photography course.</t>
+          <t>Learn to use GZIP compression and improve ESP8266 IoT web server performance.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Phil Ebiner, Video School</t>
+          <t>Farrukh Hussain</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>6.829</t>
+          <t>637</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>21 pelajaran</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/open-the-doors-to-your-professional-success/</t>
+          <t>https://www.udemy.com/course/photography-for-beginners/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Open the doors to your professional success!</t>
+          <t>Photography Fundamentals for Beginners</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Free yourself from barriers of childhood and family history</t>
+          <t>Learn the exposure triangle (aperture, shutter speed, ISO) and basic composition rules in this easy photography course.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bertold Ulsamer</t>
+          <t>Phil Ebiner, Video School</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>6.829</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -4536,22 +4536,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/digitally-painting-and-drawing-eyes/</t>
+          <t>https://www.udemy.com/course/open-the-doors-to-your-professional-success/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Digitally Painting and Drawing Eyes</t>
+          <t>Open the doors to your professional success!</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Take Your Digital Paintings to the Next Level</t>
+          <t>Free yourself from barriers of childhood and family history</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Austin Batchelor</t>
+          <t>Bertold Ulsamer</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4561,17 +4561,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.360</t>
+          <t>384</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4586,47 +4586,47 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/getting-started-with-angular-2/</t>
+          <t>https://www.udemy.com/course/digitally-painting-and-drawing-eyes/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Getting Started with Angular 2+</t>
+          <t>Digitally Painting and Drawing Eyes</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Learn how to build your first Angular 2+ app!</t>
+          <t>Take Your Digital Paintings to the Next Level</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ryan Chenkie, Angularcasts: End-to-end Angular Screencasts</t>
+          <t>Austin Batchelor</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3.585</t>
+          <t>1.360</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/deep-work/</t>
+          <t>https://www.udemy.com/course/getting-started-with-angular-2/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Concentration and Focus: The Principles of Deep Work</t>
+          <t>Getting Started with Angular 2+</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Apply Dr. Cal Newport's Deep Work methodology to Get Stuff Done</t>
+          <t>Learn how to build your first Angular 2+ app!</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nathan Robertson</t>
+          <t>Ryan Chenkie, Angularcasts: End-to-end Angular Screencasts</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4661,17 +4661,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3.009</t>
+          <t>3.585</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>43 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>7 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4686,47 +4686,47 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/4-hour-work-life/</t>
+          <t>https://www.udemy.com/course/deep-work/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>The 4 Hour Work Life: Improve Health, Sleep &amp; Productivity!</t>
+          <t>Concentration and Focus: The Principles of Deep Work</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Learn to work efficiently and effectively online and start improving your life today with The 4 Hour Work Life!</t>
+          <t>Apply Dr. Cal Newport's Deep Work methodology to Get Stuff Done</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Suppoman ™</t>
+          <t>Nathan Robertson</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>3.009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>43 total mnt</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>18 pelajaran</t>
+          <t>7 pelajaran</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -4736,47 +4736,47 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/basic-animation-in-adobe-after-effects/</t>
+          <t>https://www.udemy.com/course/4-hour-work-life/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Basic Animation in Adobe After Effects</t>
+          <t>The 4 Hour Work Life: Improve Health, Sleep &amp; Productivity!</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>You too can make cartoons!</t>
+          <t>Learn to work efficiently and effectively online and start improving your life today with The 4 Hour Work Life!</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Vadim Daschinsky</t>
+          <t>Suppoman ™</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>577</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>33 pelajaran</t>
+          <t>18 pelajaran</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -4786,42 +4786,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/free-course-make-gimp-look-and-act-as-photoshop/</t>
+          <t>https://www.udemy.com/course/basic-animation-in-adobe-after-effects/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>How to make GIMP 2.8 look and act as Photoshop</t>
+          <t>Basic Animation in Adobe After Effects</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Free courses aren't allowed to be updated anymore; please read my Instructor bio for a solution. Thank you.</t>
+          <t>You too can make cartoons!</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Bernard 't Hooft</t>
+          <t>Vadim Daschinsky</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>419</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>22 pelajaran</t>
+          <t>33 pelajaran</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-build-and-make-a-wordpress-website-from-scratch-2017/</t>
+          <t>https://www.udemy.com/course/free-course-make-gimp-look-and-act-as-photoshop/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>How To Build And Make A Wordpress Website From Scratch 2021</t>
+          <t>How to make GIMP 2.8 look and act as Photoshop</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Take your business one step further. Make and build a beautiful and successful website. Learn &amp; master Wordpress easily!</t>
+          <t>Free courses aren't allowed to be updated anymore; please read my Instructor bio for a solution. Thank you.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ido Moskovits</t>
+          <t>Bernard 't Hooft</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.871</t>
+          <t>787</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>23 pelajaran</t>
+          <t>22 pelajaran</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -4886,42 +4886,42 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/stretchgoal/</t>
+          <t>https://www.udemy.com/course/how-to-build-and-make-a-wordpress-website-from-scratch-2017/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>How To Accomplish Any Stretch Goal</t>
+          <t>How To Build And Make A Wordpress Website From Scratch 2021</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>You Can Accomplish Any Goal With The Right Mindset And Work Ethic</t>
+          <t>Take your business one step further. Make and build a beautiful and successful website. Learn &amp; master Wordpress easily!</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Marc Guberti</t>
+          <t>Ido Moskovits</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1.871</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>32 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>23 pelajaran</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4936,37 +4936,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/one-page-wordpress-website-for-beginners/</t>
+          <t>https://www.udemy.com/course/stretchgoal/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>One Page WordPress Website For Beginners</t>
+          <t>How To Accomplish Any Stretch Goal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Learn How to Make a Single Page WordPress Website With a Free WordPress Theme</t>
+          <t>You Can Accomplish Any Goal With The Right Mindset And Work Ethic</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Tom Johnson</t>
+          <t>Marc Guberti</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>274</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>32 total mnt</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/enhancing-photos-for-complete-beginners/</t>
+          <t>https://www.udemy.com/course/one-page-wordpress-website-for-beginners/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Enhancing Photos for Complete Beginners</t>
+          <t>One Page WordPress Website For Beginners</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Learn the absolute basics about enhancing your photos</t>
+          <t>Learn How to Make a Single Page WordPress Website With a Free WordPress Theme</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Simon Foster</t>
+          <t>Tom Johnson</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>311</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5036,47 +5036,47 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/3-fingerstyle-guitar-techniques-you-need-to-know/</t>
+          <t>https://www.udemy.com/course/enhancing-photos-for-complete-beginners/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Fingerstyle Guitar Mastery: 3 Techniques You Need To Know</t>
+          <t>Enhancing Photos for Complete Beginners</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Learn 3 essential modern fingerstyle techniques from Tobias Rauscher, the guitarist with 20.000.000+ YouTube views</t>
+          <t>Learn the absolute basics about enhancing your photos</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Tobias Rauscher</t>
+          <t>Simon Foster</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>843</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>34 total mnt</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-breakdance-from-beginner-to-pro-in-just-7-days/</t>
+          <t>https://www.udemy.com/course/3-fingerstyle-guitar-techniques-you-need-to-know/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>How To Breakdance - From Beginner To Pro In Just 7 Days</t>
+          <t>Fingerstyle Guitar Mastery: 3 Techniques You Need To Know</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>The ultimate step by step "breaking" course to dominate the dancefloor at the next party, show or competition.</t>
+          <t>Learn 3 essential modern fingerstyle techniques from Tobias Rauscher, the guitarist with 20.000.000+ YouTube views</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Bboy Harribo</t>
+          <t>Tobias Rauscher</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5111,17 +5111,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>346</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>34 total mnt</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>22 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/html-online-course/</t>
+          <t>https://www.udemy.com/course/how-to-breakdance-from-beginner-to-pro-in-just-7-days/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Get to know HTML Learn HTML Basics</t>
+          <t>How To Breakdance - From Beginner To Pro In Just 7 Days</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Step by Step introduction to HTML Explore HTML coding and how you can get started creating your own Web Content pages</t>
+          <t>The ultimate step by step "breaking" course to dominate the dancefloor at the next party, show or competition.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Laurence Svekis</t>
+          <t>Bboy Harribo</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5161,22 +5161,22 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.305</t>
+          <t>294</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>28 pelajaran</t>
+          <t>22 pelajaran</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5186,47 +5186,47 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/spanish-vocab/</t>
+          <t>https://www.udemy.com/course/html-online-course/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Strategies For Boosting Your Spanish Vocabulary</t>
+          <t>Get to know HTML Learn HTML Basics</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Change your learning style to expand your Spanish vocab</t>
+          <t>Step by Step introduction to HTML Explore HTML coding and how you can get started creating your own Web Content pages</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Nikki Joslin</t>
+          <t>Laurence Svekis</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>1.305</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>28 pelajaran</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/pivot-table-basics/</t>
+          <t>https://www.udemy.com/course/spanish-vocab/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Microsoft Excel Pivot Tables - The Beginner Course</t>
+          <t>Strategies For Boosting Your Spanish Vocabulary</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Start analyzing data with Excel's most powerful data analysis tool, Pivot Tables. They're easier than you think!</t>
+          <t>Change your learning style to expand your Spanish vocab</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Matt Jackman</t>
+          <t>Nikki Joslin</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>14.303</t>
+          <t>283</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -5286,47 +5286,47 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/360gopro/</t>
+          <t>https://www.udemy.com/course/pivot-table-basics/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Film and Stitch 360 VR Video with GoPros and AVP</t>
+          <t>Microsoft Excel Pivot Tables - The Beginner Course</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Learn to create incredible, immersive 360 video content like a pro!</t>
+          <t>Start analyzing data with Excel's most powerful data analysis tool, Pivot Tables. They're easier than you think!</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Noah Scott</t>
+          <t>Matt Jackman</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>14.303</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>21 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5336,47 +5336,47 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/free-photography-course-for-beginners/</t>
+          <t>https://www.udemy.com/course/360gopro/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Introductory Photography Course</t>
+          <t>Film and Stitch 360 VR Video with GoPros and AVP</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>The fastest way to get off 'Auto' mode and unlock the creative potential of your camera.</t>
+          <t>Learn to create incredible, immersive 360 video content like a pro!</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Chris Bray</t>
+          <t>Noah Scott</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16.725</t>
+          <t>121</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>10 pelajaran</t>
+          <t>21 pelajaran</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/programming-101/</t>
+          <t>https://www.udemy.com/course/free-photography-course-for-beginners/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Programming 101</t>
+          <t>Introductory Photography Course</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Comprehend basic foundational knowledge of hardware, networking, programming and licensing.</t>
+          <t>The fastest way to get off 'Auto' mode and unlock the creative potential of your camera.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Lawrence Turton</t>
+          <t>Chris Bray</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5411,17 +5411,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>6.705</t>
+          <t>16.725</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4,5 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>35 pelajaran</t>
+          <t>10 pelajaran</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5436,42 +5436,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/master-the-5-key-elements-of-story/</t>
+          <t>https://www.udemy.com/course/programming-101/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Master the 5 Key Elements of Story</t>
+          <t>Programming 101</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Understand what makes a story so you can make your story great.</t>
+          <t>Comprehend basic foundational knowledge of hardware, networking, programming and licensing.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TD Storm</t>
+          <t>Lawrence Turton</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.313</t>
+          <t>6.705</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>21 total mnt</t>
+          <t>4,5 total jam</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>9 pelajaran</t>
+          <t>35 pelajaran</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5486,42 +5486,42 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/code-a-coming-soon-landing-page-in-bootstrap-4/</t>
+          <t>https://www.udemy.com/course/master-the-5-key-elements-of-story/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Code a 'Coming Soon' Landing Page in Bootstrap 4</t>
+          <t>Master the 5 Key Elements of Story</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Build your 'under construction' or 'coming soon' landing page with countdown clock in bootstrap 4</t>
+          <t>Understand what makes a story so you can make your story great.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Andy Clarke</t>
+          <t>TD Storm</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.209</t>
+          <t>1.313</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>21 total mnt</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>18 pelajaran</t>
+          <t>9 pelajaran</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5536,32 +5536,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/hands-on-sketch-3-training-mobile-app-design-mini-course/</t>
+          <t>https://www.udemy.com/course/code-a-coming-soon-landing-page-in-bootstrap-4/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Hands on Sketch Training-Mobile App Design (Preview Course)</t>
+          <t>Code a 'Coming Soon' Landing Page in Bootstrap 4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Try the preview version of the course for a taste of using Sketch for mobile app design. Try the full version for more.</t>
+          <t>Build your 'under construction' or 'coming soon' landing page with countdown clock in bootstrap 4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Arend Pryor</t>
+          <t>Andy Clarke</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>1.209</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>18 pelajaran</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5586,47 +5586,47 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/create-gourmet-vegetarian-salads-with-super-food-ingredients/</t>
+          <t>https://www.udemy.com/course/hands-on-sketch-3-training-mobile-app-design-mini-course/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Create Gourmet Vegetarian Salads with Super Food Ingredients</t>
+          <t>Hands on Sketch Training-Mobile App Design (Preview Course)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Learn to make 3 healthy &amp; nutritional salads. Impress your friends and family with these vegetarian and vegan recipes.</t>
+          <t>Try the preview version of the course for a taste of using Sketch for mobile app design. Try the full version for more.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Victoria Holder</t>
+          <t>Arend Pryor</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>493</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -5636,32 +5636,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-be-more-productive-c/</t>
+          <t>https://www.udemy.com/course/create-gourmet-vegetarian-salads-with-super-food-ingredients/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>How To Be More Productive</t>
+          <t>Create Gourmet Vegetarian Salads with Super Food Ingredients</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Organise your life and get more done than you ever thought possible.</t>
+          <t>Learn to make 3 healthy &amp; nutritional salads. Impress your friends and family with these vegetarian and vegan recipes.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Tony Staunton</t>
+          <t>Victoria Holder</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>549</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5686,32 +5686,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/adobe-xd-experience-design/</t>
+          <t>https://www.udemy.com/course/how-to-be-more-productive-c/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>How to Design &amp; Prototype in Adobe XD</t>
+          <t>How To Be More Productive</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Everything you need to know about Adobe XD to start designing &amp; prototyping awesome apps.</t>
+          <t>Organise your life and get more done than you ever thought possible.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Daniel White</t>
+          <t>Tony Staunton</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>6.311</t>
+          <t>705</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>21 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -5736,32 +5736,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/pi-101-piano/</t>
+          <t>https://www.udemy.com/course/adobe-xd-experience-design/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PI-101 Top 10 Classical Piano Pieces for Beginners</t>
+          <t>How to Design &amp; Prototype in Adobe XD</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PI-101 In this 12-week course,  you will learn how to play 10 beautiful classical piano pieces for beginners.</t>
+          <t>Everything you need to know about Adobe XD to start designing &amp; prototyping awesome apps.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Dan Hegelund</t>
+          <t>Daniel White</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>6.311</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5771,12 +5771,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>38 pelajaran</t>
+          <t>21 pelajaran</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5786,47 +5786,47 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/pso-in-matlab/</t>
+          <t>https://www.udemy.com/course/pi-101-piano/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Particle Swarm Optimization in MATLAB</t>
+          <t>PI-101 Top 10 Classical Piano Pieces for Beginners</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>A video tutorial on PSO and its implementation in MATLAB from scratch</t>
+          <t>PI-101 In this 12-week course,  you will learn how to play 10 beautiful classical piano pieces for beginners.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Yarpiz Team, Mostapha Kalami Heris</t>
+          <t>Dan Hegelund</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.689</t>
+          <t>807</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>38 pelajaran</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -5836,47 +5836,47 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/burst-productivity-myths-boost-productivity-quickly/</t>
+          <t>https://www.udemy.com/course/pso-in-matlab/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Burst Productivity Myths &amp; Boost Productivity Quickly !</t>
+          <t>Particle Swarm Optimization in MATLAB</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Quick, Actionable and Effective Strategies to Do more in Less Time.</t>
+          <t>A video tutorial on PSO and its implementation in MATLAB from scratch</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ron N</t>
+          <t>Yarpiz Team, Mostapha Kalami Heris</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>1.689</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>34 total mnt</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5886,47 +5886,47 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/3-major-roadblocks-to-productivity/</t>
+          <t>https://www.udemy.com/course/burst-productivity-myths-boost-productivity-quickly/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3 Major Roadblocks To Productivity (Plus Bonus Assessment)</t>
+          <t>Burst Productivity Myths &amp; Boost Productivity Quickly !</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Discover The Obstacles That Prevent Productivity &amp; How To Overome Them!</t>
+          <t>Quick, Actionable and Effective Strategies to Do more in Less Time.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Beau Laviolette, LCSW</t>
+          <t>Ron N</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.118</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>34 total mnt</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -5936,47 +5936,47 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-use-cpanel-tutorial-wordpress/</t>
+          <t>https://www.udemy.com/course/3-major-roadblocks-to-productivity/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">cPanel For WordPress: How To Use cPanel [Beginners] </t>
+          <t>3 Major Roadblocks To Productivity (Plus Bonus Assessment)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>cPanel Tutorial for WordPress: Discover How To Easily Use cPanel To Improve Your Website...Fast!</t>
+          <t>Discover The Obstacles That Prevent Productivity &amp; How To Overome Them!</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Kent Mauresmo</t>
+          <t>Beau Laviolette, LCSW</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>1.118</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -5986,47 +5986,47 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/public-speaking-essentials/</t>
+          <t>https://www.udemy.com/course/how-to-use-cpanel-tutorial-wordpress/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Public Speaking Essentials: How to Craft Your Personal Story</t>
+          <t xml:space="preserve">cPanel For WordPress: How To Use cPanel [Beginners] </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Teaching you to find your authentic voice and engage others through the power of your own stories.</t>
+          <t>cPanel Tutorial for WordPress: Discover How To Easily Use cPanel To Improve Your Website...Fast!</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Josh Withrow</t>
+          <t>Kent Mauresmo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.614</t>
+          <t>396</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>33 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -6036,32 +6036,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-install-wordpress-/</t>
+          <t>https://www.udemy.com/course/public-speaking-essentials/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Create Your First Wordpress Site in Under an Hour</t>
+          <t>Public Speaking Essentials: How to Craft Your Personal Story</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Covers the essential Wordpress installation techniques you need to create a passive income online!</t>
+          <t>Teaching you to find your authentic voice and engage others through the power of your own stories.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Grant Klimaytys</t>
+          <t>Josh Withrow</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1.614</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>12 pelajaran</t>
+          <t>33 pelajaran</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -6086,42 +6086,42 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/total-beginner-guitar-lessons/</t>
+          <t>https://www.udemy.com/course/how-to-install-wordpress-/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>The Total Beginner's Guitar Course</t>
+          <t>Create Your First Wordpress Site in Under an Hour</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Complete Beginner? This Is The Guitar Course For You.</t>
+          <t>Covers the essential Wordpress installation techniques you need to create a passive income online!</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Michael Palmisano</t>
+          <t>Grant Klimaytys</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.378</t>
+          <t>568</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>12 pelajaran</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6136,47 +6136,47 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/manageyourtime/</t>
+          <t>https://www.udemy.com/course/total-beginner-guitar-lessons/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>A Mini Course on Time Management</t>
+          <t>The Total Beginner's Guitar Course</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7 steps you can use immediately to become more productive and master time management</t>
+          <t>Complete Beginner? This Is The Guitar Course For You.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Brandon Hakim, Insider School</t>
+          <t>Michael Palmisano</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23.071</t>
+          <t>1.378</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>37 total mnt</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>12 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/fearless-public-speaker-bootcamp-by-ricky-mendoza/</t>
+          <t>https://www.udemy.com/course/manageyourtime/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>How to speak to anyone &amp; be fearless - in less than 55 min</t>
+          <t>A Mini Course on Time Management</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Learn to quickly connect with crowds of strangers, be better on dates or ace that job interview.</t>
+          <t>7 steps you can use immediately to become more productive and master time management</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ricardo Mendoza</t>
+          <t>Brandon Hakim, Insider School</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6211,17 +6211,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>8.205</t>
+          <t>23.071</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>37 total mnt</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>23 pelajaran</t>
+          <t>12 pelajaran</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6236,47 +6236,47 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/camera-confidence-mini-course-be-better-on-camera/</t>
+          <t>https://www.udemy.com/course/fearless-public-speaker-bootcamp-by-ricky-mendoza/</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Camera Confidence Mini-Course: Be Better On Camera</t>
+          <t>How to speak to anyone &amp; be fearless - in less than 55 min</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>The quick-start guide to being more confident on camera for TV, YouTube, online teachers, spokespeople, and more!</t>
+          <t>Learn to quickly connect with crowds of strangers, be better on dates or ace that job interview.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Phil Ebiner, Christian Hartnett, Video School</t>
+          <t>Ricardo Mendoza</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.618</t>
+          <t>8.205</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>32 total mnt</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>23 pelajaran</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -6286,42 +6286,42 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/setup-os-x-development-environments/</t>
+          <t>https://www.udemy.com/course/camera-confidence-mini-course-be-better-on-camera/</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Setup OS X development environments </t>
+          <t>Camera Confidence Mini-Course: Be Better On Camera</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>This course covers the easiest way to setup multiple environment stacks. Such as Java, Ruby, DB's and more</t>
+          <t>The quick-start guide to being more confident on camera for TV, YouTube, online teachers, spokespeople, and more!</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>William Russell</t>
+          <t>Phil Ebiner, Christian Hartnett, Video School</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>1.618</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>32 total mnt</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>30 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6336,32 +6336,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/art-of-baking/</t>
+          <t>https://www.udemy.com/course/setup-os-x-development-environments/</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>The Art of Baking with Yuppiechef</t>
+          <t xml:space="preserve">Setup OS X development environments </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Learn with our online cooking classes and get easy baking recipes, bread making, pastry classes and cake decorating</t>
+          <t>This course covers the easiest way to setup multiple environment stacks. Such as Java, Ruby, DB's and more</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Yuppiechef Courses</t>
+          <t>William Russell</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4.192</t>
+          <t>456</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6371,12 +6371,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>7 pelajaran</t>
+          <t>30 pelajaran</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -6386,42 +6386,42 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/train-your-dog-to-walk-on-a-treadmill/</t>
+          <t>https://www.udemy.com/course/art-of-baking/</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Dog Training: Train your dog to walk on a treadmill.</t>
+          <t>The Art of Baking with Yuppiechef</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Watch four dogs learn how to walk on a treadmill for the first time!</t>
+          <t>Learn with our online cooking classes and get easy baking recipes, bread making, pastry classes and cake decorating</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ted Efthymiadis</t>
+          <t>Yuppiechef Courses</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>4.192</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>43 total mnt</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>8 pelajaran</t>
+          <t>7 pelajaran</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6436,42 +6436,42 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/presentation-skills-secrets/</t>
+          <t>https://www.udemy.com/course/train-your-dog-to-walk-on-a-treadmill/</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Presentation Skills Secrets:Delivering the Talk of Your Life</t>
+          <t>Dog Training: Train your dog to walk on a treadmill.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Learn from a TED and TEDx Speaker the Secrets of Talk Development and Storytelling to Transform Your Communications.</t>
+          <t>Watch four dogs learn how to walk on a treadmill for the first time!</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Steve Garguilo</t>
+          <t>Ted Efthymiadis</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.631</t>
+          <t>375</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>3 total jam</t>
+          <t>43 total mnt</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>84 pelajaran</t>
+          <t>8 pelajaran</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6486,42 +6486,42 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/start-a-blog-from-scratch/</t>
+          <t>https://www.udemy.com/course/presentation-skills-secrets/</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Start A Blog from Scratch (Self-Hosted Blog Tutorial)</t>
+          <t>Presentation Skills Secrets:Delivering the Talk of Your Life</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A Step by Step Guide to Starting A Self-Hosted Blog using WordPress</t>
+          <t>Learn from a TED and TEDx Speaker the Secrets of Talk Development and Storytelling to Transform Your Communications.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Martie Dread</t>
+          <t>Steve Garguilo</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>4.631</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>3 total jam</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>18 pelajaran</t>
+          <t>84 pelajaran</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6536,17 +6536,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/how-to-build-a-website-using-wordpress/</t>
+          <t>https://www.udemy.com/course/start-a-blog-from-scratch/</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>How To Build A Website Using WordPress - AMAZING</t>
+          <t>Start A Blog from Scratch (Self-Hosted Blog Tutorial)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A Complete Guide To Building Amazing, Mobile Friendly Websites using WordPress.</t>
+          <t>A Step by Step Guide to Starting A Self-Hosted Blog using WordPress</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6556,22 +6556,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1.213</t>
+          <t>427</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>23 pelajaran</t>
+          <t>18 pelajaran</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6586,47 +6586,47 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/stairway-to-scala-setup-instructions/</t>
+          <t>https://www.udemy.com/course/how-to-build-a-website-using-wordpress/</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Escalate Scala Training - Setup Instructions</t>
+          <t>How To Build A Website Using WordPress - AMAZING</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Set up environment and developer tools for enrolling in the Stairway to Scala training</t>
+          <t>A Complete Guide To Building Amazing, Mobile Friendly Websites using WordPress.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Dick Wall</t>
+          <t>Martie Dread</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.169</t>
+          <t>1.213</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>15 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>9 pelajaran</t>
+          <t>23 pelajaran</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -6636,47 +6636,47 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/writers-success-series-get-your-first-draft-written-right/</t>
+          <t>https://www.udemy.com/course/stairway-to-scala-setup-instructions/</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Get Your First Draft Written Right!</t>
+          <t>Escalate Scala Training - Setup Instructions</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Learn how to make the big changes and the tiny tweaks that will make YOUR novel stand out.</t>
+          <t>Set up environment and developer tools for enrolling in the Stairway to Scala training</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Carl Plumer</t>
+          <t>Dick Wall</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>1.169</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>15 total mnt</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>9 pelajaran</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -6686,32 +6686,32 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/coding-for-kids/</t>
+          <t>https://www.udemy.com/course/writers-success-series-get-your-first-draft-written-right/</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Coding for Kids-A Guide for Teachers and Parents</t>
+          <t>Get Your First Draft Written Right!</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Teacher guide for teaching elementary school children how to code a story they wrote.</t>
+          <t>Learn how to make the big changes and the tiny tweaks that will make YOUR novel stand out.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jim Gribble</t>
+          <t>Carl Plumer</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>203</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>8 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6736,32 +6736,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/new-guitarist-guidebook-checklist/</t>
+          <t>https://www.udemy.com/course/coding-for-kids/</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>New Guitarist Guidebook &amp; Checklist</t>
+          <t>Coding for Kids-A Guide for Teachers and Parents</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>The Complete Guide For All New And Returning Guitarists Ready To Begin a Guitar Playing Journey</t>
+          <t>Teacher guide for teaching elementary school children how to code a story they wrote.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Scott Perry</t>
+          <t>Jim Gribble</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>416</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6771,12 +6771,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>8 pelajaran</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -6786,47 +6786,47 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/6-figure-mba-executive-coaching/</t>
+          <t>https://www.udemy.com/course/new-guitarist-guidebook-checklist/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Career: Complete Career Change Program</t>
+          <t>New Guitarist Guidebook &amp; Checklist</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Career Change Strategies</t>
+          <t>The Complete Guide For All New And Returning Guitarists Ready To Begin a Guitar Playing Journey</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Karen Gurney</t>
+          <t>Scott Perry</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>145</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>50 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -6836,42 +6836,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/ultimate-goal-setting-and-achieving/</t>
+          <t>https://www.udemy.com/course/6-figure-mba-executive-coaching/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ultimate Goal Setting and Achieving</t>
+          <t>Career: Complete Career Change Program</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Learn the secrets of the world's greatest achievers to help you turn your dreams into reality</t>
+          <t>Career Change Strategies</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>AJ Kulatunga</t>
+          <t>Karen Gurney</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1.422</t>
+          <t>239</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>5 total jam</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>15 pelajaran</t>
+          <t>50 pelajaran</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6886,42 +6886,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/learn-to-create-html-css-web-templates-create-web-pages/</t>
+          <t>https://www.udemy.com/course/ultimate-goal-setting-and-achieving/</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>You can create Incredible Websites with HTML CSS learn how</t>
+          <t>Ultimate Goal Setting and Achieving</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CSS and HTML working together to create web templates and more.  Create a webpage from scratch web development course.</t>
+          <t>Learn the secrets of the world's greatest achievers to help you turn your dreams into reality</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Laurence Svekis</t>
+          <t>AJ Kulatunga</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1.422</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>29 pelajaran</t>
+          <t>15 pelajaran</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6936,42 +6936,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/mcu_msp430/</t>
+          <t>https://www.udemy.com/course/learn-to-create-html-css-web-templates-create-web-pages/</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Microcontrollers and the C Programming Language (MSP430)</t>
+          <t>You can create Incredible Websites with HTML CSS learn how</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Create C programs for a microcontroller using inputs/outputs, timers, analog-to-digital converters, comm ports, and LCD.</t>
+          <t>CSS and HTML working together to create web templates and more.  Create a webpage from scratch web development course.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Mark M. Budnik, Mark Budnik</t>
+          <t>Laurence Svekis</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>3.166</t>
+          <t>341</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>32 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>115 pelajaran</t>
+          <t>29 pelajaran</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6986,47 +6986,47 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/html5-fundamentals-for-beginners/</t>
+          <t>https://www.udemy.com/course/mcu_msp430/</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HTML5 and CSS3 Fundamentals</t>
+          <t>Microcontrollers and the C Programming Language (MSP430)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Build your very own website with HTML5 from scratch using HTML5 and CSS3 - designed for complete beginners</t>
+          <t>Create C programs for a microcontroller using inputs/outputs, timers, analog-to-digital converters, comm ports, and LCD.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Stone River eLearning</t>
+          <t>Mark M. Budnik, Mark Budnik</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13.254</t>
+          <t>3.166</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>5 total jam</t>
+          <t>32 total jam</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>35 pelajaran</t>
+          <t>115 pelajaran</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -7036,42 +7036,42 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/sensu-introduction/</t>
+          <t>https://www.udemy.com/course/html5-fundamentals-for-beginners/</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sensu - Introduction</t>
+          <t>HTML5 and CSS3 Fundamentals</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Get your feet wet with this Next Generation Monitoring Framework!</t>
+          <t>Build your very own website with HTML5 from scratch using HTML5 and CSS3 - designed for complete beginners</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Stone River eLearning</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>13.254</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>5 total jam</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>35 pelajaran</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7086,47 +7086,47 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/goal-setting/</t>
+          <t>https://www.udemy.com/course/sensu-introduction/</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>How to Use SMART Goals: Achieve More in Less Time</t>
+          <t>Sensu - Introduction</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Use a proven goal setting strategy to increase your productivity, leadership and management skills. Achieve more today.</t>
+          <t>Get your feet wet with this Next Generation Monitoring Framework!</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Richard Feenstra</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10.820</t>
+          <t>883</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>32 total mnt</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/build-your-own-super-computer-with-raspberry-pi/</t>
+          <t>https://www.udemy.com/course/goal-setting/</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Build Your Own Super Computer with Raspberry Pis</t>
+          <t>How to Use SMART Goals: Achieve More in Less Time</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Create a computer cluster using Raspberry Pi boards - everything from hardware, software, design and networks</t>
+          <t>Use a proven goal setting strategy to increase your productivity, leadership and management skills. Achieve more today.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ben Heidorn</t>
+          <t>Richard Feenstra</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7161,17 +7161,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>10.820</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>32 total mnt</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>51 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/drawing-for-kids-learn-how-to-draw-cartoons-step-by-step/</t>
+          <t>https://www.udemy.com/course/build-your-own-super-computer-with-raspberry-pi/</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Drawing for Beginners: How to Draw 25 Cartoons Step-by-Step</t>
+          <t>Build Your Own Super Computer with Raspberry Pis</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cartoon Drawing Lessons: An Inspiring Art Experience for Young Artists. Follow Me as I Teach Beginners How to Draw!</t>
+          <t>Create a computer cluster using Raspberry Pi boards - everything from hardware, software, design and networks</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Em Winn</t>
+          <t>Ben Heidorn</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7211,22 +7211,22 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3.941</t>
+          <t>430</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>37 pelajaran</t>
+          <t>51 pelajaran</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -7236,32 +7236,32 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/baseball2/</t>
+          <t>https://www.udemy.com/course/drawing-for-kids-learn-how-to-draw-cartoons-step-by-step/</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Baseball Data Wrangling with Vagrant, R, and Retrosheet</t>
+          <t>Drawing for Beginners: How to Draw 25 Cartoons Step-by-Step</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Analytics with the Chadwick tools, dplyr, and ggplot.</t>
+          <t>Cartoon Drawing Lessons: An Inspiring Art Experience for Young Artists. Follow Me as I Teach Beginners How to Draw!</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Charles Redmond</t>
+          <t>Em Winn</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>3.941</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7271,12 +7271,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>28 pelajaran</t>
+          <t>37 pelajaran</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Menengah</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -7286,32 +7286,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/contact-sheets/</t>
+          <t>https://www.udemy.com/course/baseball2/</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Contact Sheets: Begin to take &amp; select great street photos</t>
+          <t>Baseball Data Wrangling with Vagrant, R, and Retrosheet</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Learn the whole photography process: think through the shots, work the scene, and determine what are the best photos.</t>
+          <t>Analytics with the Chadwick tools, dplyr, and ggplot.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Thomas Leuthard</t>
+          <t>Charles Redmond</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7321,12 +7321,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>34 pelajaran</t>
+          <t>28 pelajaran</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Menengah</t>
         </is>
       </c>
     </row>
@@ -7336,42 +7336,42 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/leadership-skills-to-ignite-creativity/</t>
+          <t>https://www.udemy.com/course/contact-sheets/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>7 Creative Leadership Skills that Drive Change</t>
+          <t>Contact Sheets: Begin to take &amp; select great street photos</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Build a creative environment in 7 easy steps without being the most creative person in the room.</t>
+          <t>Learn the whole photography process: think through the shots, work the scene, and determine what are the best photos.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Josh Withrow</t>
+          <t>Thomas Leuthard</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>3.236</t>
+          <t>154</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>23 pelajaran</t>
+          <t>34 pelajaran</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7386,47 +7386,47 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/code-your-first-game/</t>
+          <t>https://www.udemy.com/course/leadership-skills-to-ignite-creativity/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Code Your First Game: Arcade Classic in JavaScript on Canvas</t>
+          <t>7 Creative Leadership Skills that Drive Change</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Program a complete game today. No special software or install required. All you need is a text editor and a web browser.</t>
+          <t>Build a creative environment in 7 easy steps without being the most creative person in the room.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Chris DeLeon</t>
+          <t>Josh Withrow</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>26.565</t>
+          <t>3.236</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>12 pelajaran</t>
+          <t>23 pelajaran</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -7436,42 +7436,42 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/producing-drums-with-ableton-live/</t>
+          <t>https://www.udemy.com/course/code-your-first-game/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Producing Drums with Ableton Live and Drum Rack</t>
+          <t>Code Your First Game: Arcade Classic in JavaScript on Canvas</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>A comprehensive overview of how to use Drum Rack and how to produce better sounding drum kits in Live.</t>
+          <t>Program a complete game today. No special software or install required. All you need is a text editor and a web browser.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Alec Ness</t>
+          <t>Chris DeLeon</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>26.565</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>9 pelajaran</t>
+          <t>12 pelajaran</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7486,32 +7486,32 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/brackets/</t>
+          <t>https://www.udemy.com/course/producing-drums-with-ableton-live/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Learn Brackets - The Open Source Text Editor</t>
+          <t>Producing Drums with Ableton Live and Drum Rack</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Brackets is the free, open source code editor. Explore its many powerful features in this tutorial!</t>
+          <t>A comprehensive overview of how to use Drum Rack and how to produce better sounding drum kits in Live.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Daniel Stern</t>
+          <t>Alec Ness</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1.584</t>
+          <t>391</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7521,12 +7521,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>16 pelajaran</t>
+          <t>9 pelajaran</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -7536,32 +7536,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/emmet-start-coding-html-and-css-fast-and-easy/</t>
+          <t>https://www.udemy.com/course/brackets/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EMMET Faster HTML &amp; CSS workflow - Best Tool For Developers</t>
+          <t>Learn Brackets - The Open Source Text Editor</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Emmet is plugin for text editors that helps you write HTML and CSS faster. Work quicker saving time &amp; making more money.</t>
+          <t>Brackets is the free, open source code editor. Explore its many powerful features in this tutorial!</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Edwin Diaz, Coding Faculty Solutions</t>
+          <t>Daniel Stern</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2.527</t>
+          <t>1.584</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>16 pelajaran</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7586,42 +7586,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/improve-your-web-design-experience-with-squarespace/</t>
+          <t>https://www.udemy.com/course/emmet-start-coding-html-and-css-fast-and-easy/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Improve Your Web Design Experience with Squarespace</t>
+          <t>EMMET Faster HTML &amp; CSS workflow - Best Tool For Developers</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Featuring 25 video tutorials to help enhance your Squarespace experience, powered by Squarespace Summit.</t>
+          <t>Emmet is plugin for text editors that helps you write HTML and CSS faster. Work quicker saving time &amp; making more money.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>David Di Franco</t>
+          <t>Edwin Diaz, Coding Faculty Solutions</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>2.527</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>27 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7636,32 +7636,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/beginners-guide-eight-steps-to-sterling-prose/</t>
+          <t>https://www.udemy.com/course/improve-your-web-design-experience-with-squarespace/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Make Your Writing Stand Out in Eight Easy Steps</t>
+          <t>Improve Your Web Design Experience with Squarespace</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Master brilliant writing and beat your competition with a research-based system designed by a professional writing coach</t>
+          <t>Featuring 25 video tutorials to help enhance your Squarespace experience, powered by Squarespace Summit.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Rachel Leroy                                 BA, MA, MFA</t>
+          <t>David Di Franco</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2.559</t>
+          <t>401</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7671,12 +7671,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>23 pelajaran</t>
+          <t>27 pelajaran</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -7686,42 +7686,42 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/security-awareness-campaigns/</t>
+          <t>https://www.udemy.com/course/beginners-guide-eight-steps-to-sterling-prose/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Security Awareness Campaigns (Lite)</t>
+          <t>Make Your Writing Stand Out in Eight Easy Steps</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>This is the "lite" version of Security Awareness Campaigns and is meant to give you an idea of the full course.</t>
+          <t>Master brilliant writing and beat your competition with a research-based system designed by a professional writing coach</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Michael Goedeker</t>
+          <t>Rachel Leroy                                 BA, MA, MFA</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>5.406</t>
+          <t>2.559</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>33 total mnt</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>8 pelajaran</t>
+          <t>23 pelajaran</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7736,37 +7736,37 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/learn-to-make-an-animated-image-gallery-using-html5/</t>
+          <t>https://www.udemy.com/course/security-awareness-campaigns/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Learn to Make an Animated Image Gallery using HTML5</t>
+          <t>Security Awareness Campaigns (Lite)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>A Quick Guide to Learn Animation in HTML</t>
+          <t>This is the "lite" version of Security Awareness Campaigns and is meant to give you an idea of the full course.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Eduonix Learning Solutions, Eduonix-Tech .</t>
+          <t>Michael Goedeker</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>5.406</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>33 total mnt</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7786,47 +7786,47 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/mindfulness-stress-reduction/</t>
+          <t>https://www.udemy.com/course/learn-to-make-an-animated-image-gallery-using-html5/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Learn Mindfulness Meditation for a Calmer and Clearer mind</t>
+          <t>Learn to Make an Animated Image Gallery using HTML5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Practical mindfulness meditation course showing the method how to increase concentration and reduce stress</t>
+          <t>A Quick Guide to Learn Animation in HTML</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Per Norrgren</t>
+          <t>Eduonix Learning Solutions, Eduonix-Tech .</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>414</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>12,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>91 pelajaran</t>
+          <t>8 pelajaran</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -7836,47 +7836,47 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/7-scientifically-proven-steps-to-increase-your-influence/</t>
+          <t>https://www.udemy.com/course/mindfulness-stress-reduction/</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>7 Scientifically Proven Steps to Increase Your Influence</t>
+          <t>Learn Mindfulness Meditation for a Calmer and Clearer mind</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Learn the science of charisma. Increase your impact, influence and income using 7 science based steps.</t>
+          <t>Practical mindfulness meditation course showing the method how to increase concentration and reduce stress</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Vanessa Van Edwards, Science of People</t>
+          <t>Per Norrgren</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>23.743</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>12,5 total jam</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>14 pelajaran</t>
+          <t>91 pelajaran</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -7886,42 +7886,42 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/unity-3d-using-light-and-shadow-in-game-development/</t>
+          <t>https://www.udemy.com/course/7-scientifically-proven-steps-to-increase-your-influence/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Unity 3d | Using Light and Shadow in Game Development</t>
+          <t>7 Scientifically Proven Steps to Increase Your Influence</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Learn how to use light and shadow to create amazing game levels and scenes.</t>
+          <t>Learn the science of charisma. Increase your impact, influence and income using 7 science based steps.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Stone River eLearning</t>
+          <t>Vanessa Van Edwards, Science of People</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>23.743</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>13 pelajaran</t>
+          <t>14 pelajaran</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7936,17 +7936,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/introduction-to-game-dynamics/</t>
+          <t>https://www.udemy.com/course/unity-3d-using-light-and-shadow-in-game-development/</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Introduction to Game Dynamics with Unity 3D</t>
+          <t>Unity 3d | Using Light and Shadow in Game Development</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Learn professional game development techniques using the Unity 3D platform.</t>
+          <t>Learn how to use light and shadow to create amazing game levels and scenes.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7956,27 +7956,27 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>204</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>11 pelajaran</t>
+          <t>13 pelajaran</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -7986,32 +7986,32 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/change-your-thinking/</t>
+          <t>https://www.udemy.com/course/introduction-to-game-dynamics/</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>How to Change Your Thinking &amp; become more Positive</t>
+          <t>Introduction to Game Dynamics with Unity 3D</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quick inspirational video tips to shift your perceptions so that you can  live the life you deserve.</t>
+          <t>Learn professional game development techniques using the Unity 3D platform.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Wolfgang Riebe</t>
+          <t>Stone River eLearning</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2.604</t>
+          <t>304</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>22 pelajaran</t>
+          <t>11 pelajaran</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8036,22 +8036,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/programming-for-kids-how-to-make-coding-fun/</t>
+          <t>https://www.udemy.com/course/change-your-thinking/</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Programming for Kids - How to Make Coding Fun</t>
+          <t>How to Change Your Thinking &amp; become more Positive</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Explore free tools, techniques and ideas to inspire fun and creativity in your children's approach to programming.</t>
+          <t>Quick inspirational video tips to shift your perceptions so that you can  live the life you deserve.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Fractus Learning</t>
+          <t>Wolfgang Riebe</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8061,22 +8061,22 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2.530</t>
+          <t>2.604</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>22 pelajaran</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -8086,42 +8086,42 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/joomla-3-the-basics/</t>
+          <t>https://www.udemy.com/course/programming-for-kids-how-to-make-coding-fun/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Joomla 3 - The Basics</t>
+          <t>Programming for Kids - How to Make Coding Fun</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Learn everything you need to know to build your first website powered by Joomla 3.</t>
+          <t>Explore free tools, techniques and ideas to inspire fun and creativity in your children's approach to programming.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Richard Pearce</t>
+          <t>Fractus Learning</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1.014</t>
+          <t>2.530</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>3 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>17 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8136,47 +8136,47 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/getting-started-with-the-paleo-diet/</t>
+          <t>https://www.udemy.com/course/joomla-3-the-basics/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Getting Started with the Paleo Diet </t>
+          <t>Joomla 3 - The Basics</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>The basics of getting started with the paleo diet and lifestyle strategies to help you lose body fat and get lean.</t>
+          <t>Learn everything you need to know to build your first website powered by Joomla 3.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Chris Hiestand</t>
+          <t>Richard Pearce</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>1.014</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2 total jam</t>
+          <t>3 total jam</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>44 pelajaran</t>
+          <t>17 pelajaran</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -8186,42 +8186,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/commanding-chaos/</t>
+          <t>https://www.udemy.com/course/getting-started-with-the-paleo-diet/</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Commanding Chaos - Make a Plan and Take Command!</t>
+          <t xml:space="preserve">Getting Started with the Paleo Diet </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Learn how to achieve your long AND short term goals by using proven methods rooted in emergency response operations.</t>
+          <t>The basics of getting started with the paleo diet and lifestyle strategies to help you lose body fat and get lean.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>James J. Stamatelos</t>
+          <t>Chris Hiestand</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>583</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1,5 total jam</t>
+          <t>2 total jam</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>19 pelajaran</t>
+          <t>44 pelajaran</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8236,32 +8236,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/hyperthinking-upgrade-your-mind-to-success-on-business/</t>
+          <t>https://www.udemy.com/course/commanding-chaos/</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Hyperthinking: improve your day to day learning &amp; creativity</t>
+          <t>Commanding Chaos - Make a Plan and Take Command!</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Train your mind for success with the right thinking tools and habits!</t>
+          <t>Learn how to achieve your long AND short term goals by using proven methods rooted in emergency response operations.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Digital Masterclass - Online Series, Philip Weiss</t>
+          <t>James J. Stamatelos</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4.912</t>
+          <t>293</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>23 pelajaran</t>
+          <t>19 pelajaran</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8286,42 +8286,42 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/master-a-financial-management-habit-and-worry-no-more/</t>
+          <t>https://www.udemy.com/course/hyperthinking-upgrade-your-mind-to-success-on-business/</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Master a Financial Management Habit &amp; Worry No More</t>
+          <t>Hyperthinking: improve your day to day learning &amp; creativity</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Step by step instructions using CalendarBudget, you'll learn the habit of excellent budget management!</t>
+          <t>Train your mind for success with the right thinking tools and habits!</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Eric Poulin</t>
+          <t>Digital Masterclass - Online Series, Philip Weiss</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>4.912</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>1,5 total jam</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>22 pelajaran</t>
+          <t>23 pelajaran</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8336,47 +8336,47 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/programming-for-entrepreneurs-javascript/</t>
+          <t>https://www.udemy.com/course/master-a-financial-management-habit-and-worry-no-more/</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Programming for Entrepreneurs - JavaScript</t>
+          <t>Master a Financial Management Habit &amp; Worry No More</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Learn JavaScript from scratch and get started with that website/app/game project!</t>
+          <t>Step by step instructions using CalendarBudget, you'll learn the habit of excellent budget management!</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Pablo Farias Navarro, Zenva Academy</t>
+          <t>Eric Poulin</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>202</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>39 pelajaran</t>
+          <t>22 pelajaran</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
@@ -8386,47 +8386,47 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/learn-how-to-do-hex-conversions-in-under-30-seconds/</t>
+          <t>https://www.udemy.com/course/programming-for-entrepreneurs-javascript/</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Convert HEX to Decimal in under 30 seconds!</t>
+          <t>Programming for Entrepreneurs - JavaScript</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>This course is geared for Cisco's,  CCNA (200-120) certification exam as well as other courses needed for conversions.</t>
+          <t>Learn JavaScript from scratch and get started with that website/app/game project!</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Lazaro Diaz</t>
+          <t>Pablo Farias Navarro, Zenva Academy</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>930</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1 total jam</t>
+          <t>2,5 total jam</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>20 pelajaran</t>
+          <t>39 pelajaran</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Semua Tingkat</t>
+          <t>Pemula</t>
         </is>
       </c>
     </row>
@@ -8436,47 +8436,47 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.udemy.com/course/astronomy-state-of-the-art/</t>
+          <t>https://www.udemy.com/course/learn-how-to-do-hex-conversions-in-under-30-seconds/</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Astronomy - State of the Art</t>
+          <t>Convert HEX to Decimal in under 30 seconds!</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Join Prof. Chris Impey in this Astronomy for beginners course and learn about today's amazing astronomical discoveries!</t>
+          <t>This course is geared for Cisco's,  CCNA (200-120) certification exam as well as other courses needed for conversions.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Chris Impey, Matthew Wenger, Martin Formanek</t>
+          <t>Lazaro Diaz</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.300</t>
+          <t>554</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>23,5 total jam</t>
+          <t>1 total jam</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>77 pelajaran</t>
+          <t>20 pelajaran</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Pemula</t>
+          <t>Semua Tingkat</t>
         </is>
       </c>
     </row>
